--- a/trunk/my doc/files/Color Matrix/cmk.xlsx
+++ b/trunk/my doc/files/Color Matrix/cmk.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>rgbGain:</t>
   </si>
@@ -86,6 +86,30 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sRGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sRGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W255fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIZO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIZO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W255fix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +141,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -186,7 +217,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,6 +244,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -527,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1123,7 @@
         <v>0.53650000000000009</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>12</v>
       </c>
@@ -1100,7 +1134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>15</v>
       </c>
@@ -1111,7 +1145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>15</v>
       </c>
@@ -1122,7 +1156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>1.1200000000000001</v>
       </c>
@@ -1149,18 +1183,18 @@
         <v>0.5</v>
       </c>
       <c r="F40">
-        <v>0.5</v>
+        <v>192</v>
       </c>
       <c r="H40">
         <f>B40*F40+C40*F41+D40*F42</f>
-        <v>0.53</v>
-      </c>
-      <c r="L40">
+        <v>203.52000000000004</v>
+      </c>
+      <c r="M40">
         <f>J41+J49</f>
-        <v>2.1060377358490561</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1.4460613207547168</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <f>-(C41-1)*E41</f>
         <v>-0.13305</v>
@@ -1176,22 +1210,22 @@
         <v>0.5</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>96</v>
       </c>
       <c r="H41">
         <f>B41*F40+C41*F41+D41*F42</f>
-        <v>0.56652499999999995</v>
+        <v>83.227199999999996</v>
       </c>
       <c r="J41">
         <f>H41/H40</f>
-        <v>1.0689150943396224</v>
-      </c>
-      <c r="L41">
+        <v>0.40893867924528293</v>
+      </c>
+      <c r="M41">
         <f>J41+J45</f>
-        <v>2.0995695719855041</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1.4395931568911644</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <f>-(D42-1)*E42</f>
         <v>-9.9350000000000049E-2</v>
@@ -1207,33 +1241,33 @@
         <v>0.5</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H42">
         <f>B42*F40+C42*F41+D42*F42</f>
-        <v>-9.9350000000000049E-2</v>
-      </c>
-      <c r="L42">
+        <v>86.462400000000002</v>
+      </c>
+      <c r="M42">
         <f>J45+J49</f>
         <v>2.0677771191553154</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
-        <f>B40</f>
+        <f t="shared" ref="B44:D46" si="2">B40</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="C44" s="4">
-        <f>C40</f>
+        <f t="shared" si="2"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="D44" s="4">
-        <f>D40</f>
+        <f t="shared" si="2"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="F44">
@@ -1244,17 +1278,17 @@
         <v>-6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
-        <f>B41</f>
+        <f t="shared" si="2"/>
         <v>-0.13305</v>
       </c>
       <c r="C45" s="3">
-        <f>C41</f>
+        <f t="shared" si="2"/>
         <v>1.2661</v>
       </c>
       <c r="D45" s="3">
-        <f>D41</f>
+        <f t="shared" si="2"/>
         <v>-0.13305</v>
       </c>
       <c r="F45">
@@ -1269,17 +1303,17 @@
         <v>1.0306544776458815</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
-        <f>B42</f>
+        <f t="shared" si="2"/>
         <v>-9.9350000000000049E-2</v>
       </c>
       <c r="C46" s="3">
-        <f>C42</f>
+        <f t="shared" si="2"/>
         <v>-9.9350000000000049E-2</v>
       </c>
       <c r="D46" s="3">
-        <f>D42</f>
+        <f t="shared" si="2"/>
         <v>1.1987000000000001</v>
       </c>
       <c r="F46">
@@ -1290,17 +1324,17 @@
         <v>0.54967500000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
-        <f>B40</f>
+        <f t="shared" ref="B48:D50" si="3">B40</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="C48" s="4">
-        <f>C40</f>
+        <f t="shared" si="3"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="D48" s="3">
-        <f>D40</f>
+        <f t="shared" si="3"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="F48">
@@ -1313,15 +1347,15 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
-        <f>B41</f>
+        <f t="shared" si="3"/>
         <v>-0.13305</v>
       </c>
       <c r="C49" s="4">
-        <f>C41</f>
+        <f t="shared" si="3"/>
         <v>1.2661</v>
       </c>
       <c r="D49" s="4">
-        <f>D41</f>
+        <f t="shared" si="3"/>
         <v>-0.13305</v>
       </c>
       <c r="F49">
@@ -1338,15 +1372,15 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <f>B42</f>
+        <f t="shared" si="3"/>
         <v>-9.9350000000000049E-2</v>
       </c>
       <c r="C50" s="4">
-        <f>C42</f>
+        <f t="shared" si="3"/>
         <v>-9.9350000000000049E-2</v>
       </c>
       <c r="D50" s="3">
-        <f>D42</f>
+        <f t="shared" si="3"/>
         <v>1.1987000000000001</v>
       </c>
       <c r="F50">
@@ -1365,12 +1399,221 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="9">
+        <v>0.92562</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-4.5650000000000003E-2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.158</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:D2)</f>
+        <v>1.0379700000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>-7.9949999999999993E-2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.0964499999999999</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-0.13339999999999999</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="0">SUM(B3:D3)</f>
+        <v>0.8831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>1.384E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.487E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.97731000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>0.92562</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-4.5650000000000003E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.158</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.0379700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>-7.9949999999999993E-2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.2133499999999999</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-0.13339999999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>1.384E-2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2.487E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.96128999999999998</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>0.90912999999999999</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4.7390000000000002E-2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.14618999999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.1027100000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>-0.13438</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.1879500000000001</v>
+      </c>
+      <c r="D11" s="9">
+        <v>-0.18576999999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.86780000000000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>-0.11521000000000001</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.1041399999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.0146299999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>0.90912999999999999</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4.7390000000000002E-2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.14618999999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.1027100000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>-0.13438</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.3201499999999999</v>
+      </c>
+      <c r="D15" s="9">
+        <v>-0.18576999999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>-0.11521000000000001</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.1041399999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.0146299999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/my doc/files/Color Matrix/cmk.xlsx
+++ b/trunk/my doc/files/Color Matrix/cmk.xlsx
@@ -10,13 +10,243 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144315"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>sertekl3</author>
+  </authors>
+  <commentList>
+    <comment ref="G41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sertekl3:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>越小對</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Y</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>越好
+越大對</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>M</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>越好</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sertekl3:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>越大對</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Y</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>越好
+越小對</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>越好</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sertekl3:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>越大對</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>越好
+越大對</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>M</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>越好</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>rgbGain:</t>
   </si>
@@ -112,12 +342,88 @@
     <t>W255fix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sRGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合體率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +456,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="6">
@@ -270,6 +596,809 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>sRGB 46 Patch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>sRGB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0.489962238132922</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39490590631718903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30535846355872298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24806092476619501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.253601823684248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.316562190958525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31272687102656399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45229042297616001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38514049028841102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30812970021484998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26588414585694797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.253601823684248</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.316562190958525</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31272687102656399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31272687102656399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31272687102656399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31272687102656399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31272687102656399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31272687102656399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31272687102656399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31272687102656399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.31272687102656399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52973412012665899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45512866013241898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30274296180159499</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30524905518640799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18481976382825099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.216753054871996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.41932034968236997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.40318904397815603</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.41932034968236997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38595647776084202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.32093818028481003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31970180575468699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32093818028481003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.31837856060966702</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.224655651532784</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.235249750774984</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.224655651532784</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.247458168354106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0.32955219088775101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46488317526909601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48590917049118998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32883020189616402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.231276536232737</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24736270308953001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32902320664128398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32943975397925401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44873880084786699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42690481497064697</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32888339784306903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.231276536232737</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24736270308953001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32902320664128398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32902320664128398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32902320664128398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32902320664128398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32902320664128398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32902320664128398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32902320664128398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32902320664128398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32902320664128398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32967089574542502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32944822510309302</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54159766436302403</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.48823866136405297</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11756470618819399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17035743980989199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50524560466399904</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.478577018458896</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50524560466399904</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45008780710004698</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.154190425871222</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18051494859671299</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.154190425871222</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.20868909489524501</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.32876034551802202</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.32879196511909897</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.32876034551802202</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.32882840288363202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Panel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0.39818992022232902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36479509033424201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29635649091439098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24522614632467099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25291270000694999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28586463352985297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30177198476262102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36763830138426401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35031299649916597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.294582707605266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26177556206040198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25291270000694999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28586463352985297</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30177198476262102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.272618227373219</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29103761180774601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28913540520516601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29033272889065997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29087165921751001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.289552051894443</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29569532810619797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30177198476262102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59353050501511195</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.43736951082146203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61869219824794297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.37695630357542398</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.29708590941350699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30027440208516099</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.315509804936359</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30315028718478298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.145159764996625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19182234533550499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14171093893908601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.22808826412806801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.40639530686528602</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.37923630017911902</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.43446595696896101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36418178053144701</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28581521331440901</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.28302641811909701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.294446244825739</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.29515662677319199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.21275832301224601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.229417616848339</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.21557152522114501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.250705632553618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$F$2:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0.33996535620051499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43461386182654199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42164845450300997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31825654907181899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.271588748345655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28080365657974699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33316148890609498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33485712964674103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.412789909102522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37653270157677299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32009617541048202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.271588748345655</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28080365657974699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33316148890609498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30438805462720198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32824554985260201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32416608004668102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32478144467118703</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32495775917472203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32428477677495199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32222186089383398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33316148890609498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.35463103136776802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34552864256316101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35995574610127201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33446372440305999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57774396610707701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.48640157747048302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59867486925159397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.41999418773288399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.103263823364343</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1808277915315</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.122364789051175</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.24631191476238601</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50221459331628104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45647565290064002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50804213440812596</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40951610614301498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.179964155761838</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22076081711965101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.197716477314438</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26562448870837801</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.31661161661114501</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.31648558606211202</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.325612841949798</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.32854516082717999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="66025344"/>
+        <c:axId val="66023808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66025344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>CIE x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66023808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66023808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>CIE y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66025344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85148709536307976"/>
+          <c:y val="6.9060586176727903E-2"/>
+          <c:w val="0.10962401574803149"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,16 +1687,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,26 +1713,26 @@
       <c r="D1">
         <v>-7.5741993674159798E-3</v>
       </c>
-      <c r="E1">
+      <c r="G1">
         <v>-1.8594836965237099E-2</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <v>1.0370460792823999</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <v>-1.84512423171698E-2</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <v>-3.68722514251482E-3</v>
       </c>
-      <c r="I1">
+      <c r="K1">
         <v>-3.5325054387602898E-3</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>1.00721973058127</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -612,40 +1745,40 @@
       <c r="D2">
         <v>-7.5741993674159798E-3</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>-1.8594836965237099E-2</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1.0577870008680501</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-1.84512423171698E-2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-3.68722514251482E-3</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>-3.5325054387602898E-3</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>1.0273641251929</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>SUM(B1:D1)</f>
         <v>0.99999999999999278</v>
       </c>
-      <c r="E4">
-        <f>SUM(E1:G1)</f>
+      <c r="G4">
+        <f>SUM(G1:I1)</f>
         <v>0.99999999999999301</v>
       </c>
-      <c r="H4">
-        <f>SUM(H1:J1)</f>
+      <c r="J4">
+        <f>SUM(J1:L1)</f>
         <v>0.99999999999999489</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.0136085792823999</v>
       </c>
@@ -655,15 +1788,15 @@
       <c r="D6">
         <v>-7.5741993674159798E-3</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <f>B6+C6</f>
         <v>1.0075741993674088</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>-1.8594836965237099E-2</v>
       </c>
@@ -673,15 +1806,15 @@
       <c r="D7">
         <v>-1.84512423171698E-2</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <f>B7+C7</f>
         <v>1.0184512423171628</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>-3.68722514251482E-3</v>
       </c>
@@ -692,7 +1825,7 @@
         <v>1.00721973058127</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -705,32 +1838,32 @@
       <c r="D10">
         <v>-5.0700000000000002E-2</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <f>SUM(B10:D10)</f>
         <v>1.0313000000000001</v>
       </c>
-      <c r="H10">
-        <f t="shared" ref="H10:J12" si="0">B10*$E$13</f>
+      <c r="J10">
+        <f t="shared" ref="J10:L12" si="0">B10*$G$13</f>
         <v>1.1765263407313802</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>-3.9917857989100393E-2</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>-5.325882631703658E-2</v>
       </c>
-      <c r="L10">
-        <f>SUM(H10:J10)</f>
+      <c r="N10">
+        <f>SUM(J10:L10)</f>
         <v>1.0833496564252432</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <f>C10/SUM(C10:D10)</f>
         <v>0.42841037204058624</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>-0.118737</v>
       </c>
@@ -740,32 +1873,32 @@
       <c r="D11">
         <v>-9.64E-2</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <f>SUM(B11:D11)</f>
         <v>1.0509629999999999</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>-0.12472965010662666</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>-0.1012653028986652</v>
       </c>
-      <c r="L11">
-        <f>SUM(H11:J11)</f>
+      <c r="N11">
+        <f>SUM(J11:L11)</f>
         <v>1.1040050469947083</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <f>B11/SUM(B11,D11)</f>
         <v>0.5519134319061807</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-0.12570000000000001</v>
       </c>
@@ -775,38 +1908,38 @@
       <c r="D12">
         <v>1.1987000000000001</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <f>SUM(B12:D12)</f>
         <v>1.0312000000000001</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>-0.13204407234815577</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>-4.3909643788010426E-2</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>1.2591983255667012</v>
       </c>
-      <c r="L12">
-        <f>SUM(H12:J12)</f>
+      <c r="N12">
+        <f>SUM(J12:L12)</f>
         <v>1.083244609430535</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <f>B12/SUM(B12:C12)</f>
         <v>0.75044776119402989</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G13">
         <f>C15/C11</f>
         <v>1.0504699470815893</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -819,16 +1952,16 @@
       <c r="D14">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <f>SUM(B14:D14)</f>
         <v>1.0309999999999999</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <f>C14/SUM(C14:D14)</f>
         <v>0.42758620689655169</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>-0.154</v>
       </c>
@@ -838,16 +1971,16 @@
       <c r="D15">
         <v>-0.124</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <f>SUM(B15:D15)</f>
         <v>1.052</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <f>B15/SUM(B15,D15)</f>
         <v>0.5539568345323741</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>-0.17100000000000001</v>
       </c>
@@ -857,16 +1990,16 @@
       <c r="D16">
         <v>1.2589999999999999</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <f>SUM(B16:D16)</f>
         <v>1.0309999999999999</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <f>B16/SUM(B16:C16)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ref="B18:D20" si="1">B14/B10</f>
         <v>1.0499999999999998</v>
@@ -880,7 +2013,7 @@
         <v>1.6370808678500985</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="1"/>
         <v>1.2969840908899501</v>
@@ -894,7 +2027,7 @@
         <v>1.2863070539419088</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="1"/>
         <v>1.360381861575179</v>
@@ -908,492 +2041,580 @@
         <v>1.0503044965379158</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
         <v>9</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J22" t="s">
         <v>10</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>-5.0700000000000002E-2</v>
       </c>
-      <c r="F22">
+      <c r="E23">
+        <f>SUM(B23:D23)</f>
+        <v>1.0313000000000001</v>
+      </c>
+      <c r="H23">
         <v>0.5</v>
       </c>
-      <c r="H22">
-        <f>B22*F22+C22*F23+D22*F24</f>
+      <c r="J23">
+        <f>B23*H23+C23*H24+D23*H25</f>
         <v>0.54100000000000004</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N23" t="s">
         <v>4</v>
       </c>
-      <c r="M22">
-        <f>J23+J31</f>
+      <c r="O23">
+        <f>L24+L32</f>
         <v>2.0638696345995173</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
         <v>-0.118737</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>1.2661</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>-9.64E-2</v>
       </c>
-      <c r="F23">
+      <c r="E24">
+        <f>SUM(B24:D24)</f>
+        <v>1.0509629999999999</v>
+      </c>
+      <c r="H24">
         <v>0.5</v>
       </c>
-      <c r="H23">
-        <f>B23*F22+C23*F23+D23*F24</f>
+      <c r="J24">
+        <f>B24*H23+C24*H24+D24*H25</f>
         <v>0.57368149999999996</v>
       </c>
-      <c r="J23">
-        <f>H23/H22</f>
+      <c r="L24">
+        <f>J24/J23</f>
         <v>1.0604094269870608</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N24" t="s">
         <v>3</v>
       </c>
-      <c r="M23">
-        <f>J23+J27</f>
+      <c r="O24">
+        <f>L24+L28</f>
         <v>2.0714734774667907</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>-0.12570000000000001</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>-4.1799999999999997E-2</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>1.1987000000000001</v>
       </c>
-      <c r="F24">
+      <c r="E25">
+        <f>SUM(B25:D25)</f>
+        <v>1.0312000000000001</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
-      <c r="H24">
-        <f>B24*F22+C24*F23+D24*F24</f>
+      <c r="J25">
+        <f>B25*H23+C25*H24+D25*H25</f>
         <v>-8.3750000000000005E-2</v>
       </c>
-      <c r="M24">
-        <f>J27+J31</f>
+      <c r="O25">
+        <f>L28+L32</f>
         <v>2.0145242580921869</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>-5.0700000000000002E-2</v>
       </c>
-      <c r="F26">
+      <c r="H27">
         <v>0</v>
       </c>
-      <c r="H26">
-        <f>B26*F26+C26*F27+D26*F28</f>
+      <c r="J27">
+        <f>B27*H27+C27*H28+D27*H29</f>
         <v>-4.4350000000000001E-2</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>-0.118737</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>1.2661</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>-9.64E-2</v>
       </c>
-      <c r="F27">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28">
         <v>0.5</v>
       </c>
-      <c r="H27">
-        <f>B27*F26+C27*F27+D27*F28</f>
+      <c r="J28">
+        <f>B28*H27+C28*H28+D28*H29</f>
         <v>0.58484999999999998</v>
       </c>
-      <c r="J27">
-        <f>H27/H28</f>
+      <c r="L28">
+        <f>J28/J29</f>
         <v>1.0110640504797301</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>-0.12570000000000001</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="3">
         <v>-4.1799999999999997E-2</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>1.1987000000000001</v>
       </c>
-      <c r="F28">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29">
         <v>0.5</v>
       </c>
-      <c r="H28">
-        <f>B28*F26+C28*F27+D28*F28</f>
+      <c r="J29">
+        <f>B29*H27+C29*H28+D29*H29</f>
         <v>0.57845000000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>-5.0700000000000002E-2</v>
       </c>
-      <c r="F30">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31">
         <v>0.5</v>
       </c>
-      <c r="H30">
-        <f>B30*F30+C30*F31+D30*F32</f>
+      <c r="J31">
+        <f>B31*H31+C31*H32+D31*H33</f>
         <v>0.53465000000000007</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>-0.118737</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>1.2661</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>-9.64E-2</v>
       </c>
-      <c r="F31">
+      <c r="H32">
         <v>0</v>
       </c>
-      <c r="H31">
-        <f>B31*F30+C31*F31+D31*F32</f>
+      <c r="J32">
+        <f>B32*H31+C32*H32+D32*H33</f>
         <v>-0.1075685</v>
       </c>
-      <c r="J31">
-        <f>H32/H30</f>
+      <c r="L32">
+        <f>J33/J31</f>
         <v>1.0034602076124568</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
         <v>-0.12570000000000001</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>-4.1799999999999997E-2</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <v>1.1987000000000001</v>
       </c>
-      <c r="F32">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33">
         <v>0.5</v>
       </c>
-      <c r="H32">
-        <f>B32*F30+C32*F31+D32*F32</f>
+      <c r="J33">
+        <f>B33*H31+C33*H32+D33*H33</f>
         <v>0.53650000000000009</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
         <v>9</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J40" t="s">
         <v>10</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C40" s="3">
-        <f>-(B40-1)*E40</f>
+      <c r="C41" s="3">
+        <f>-(B41-1)*G41*1/F41</f>
         <v>-6.0000000000000053E-2</v>
       </c>
-      <c r="D40">
-        <f>-(B40-1)*(1-E40)</f>
+      <c r="D41">
+        <f>-(B41-1)*(1-G41)*1/F41</f>
         <v>-6.0000000000000053E-2</v>
       </c>
-      <c r="E40">
+      <c r="E41">
+        <f>SUM(B41:D41)</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>0.5</v>
       </c>
-      <c r="F40">
-        <v>192</v>
-      </c>
-      <c r="H40">
-        <f>B40*F40+C40*F41+D40*F42</f>
-        <v>203.52000000000004</v>
-      </c>
-      <c r="M40">
-        <f>J41+J49</f>
-        <v>1.4460613207547168</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
-        <f>-(C41-1)*E41</f>
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41">
+        <f>B41*H41+C41*H42+D41*H43</f>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="O41">
+        <f>L42+L50</f>
+        <v>2.0858015267175567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <f>-(C42-1)*G42*1/F42</f>
         <v>-0.13305</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C42" s="3">
         <v>1.2661</v>
       </c>
-      <c r="D41">
-        <f>-(C41-1)*(1-E41)</f>
+      <c r="D42">
+        <f>-(C42-1)*(1-G42)*1/F42</f>
         <v>-0.13305</v>
       </c>
-      <c r="E41">
+      <c r="E42">
+        <f>SUM(B42:D42)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>0.5</v>
       </c>
-      <c r="F41">
-        <v>96</v>
-      </c>
-      <c r="H41">
-        <f>B41*F40+C41*F41+D41*F42</f>
-        <v>83.227199999999996</v>
-      </c>
-      <c r="J41">
-        <f>H41/H40</f>
-        <v>0.40893867924528293</v>
-      </c>
-      <c r="M41">
-        <f>J41+J45</f>
-        <v>1.4395931568911644</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <f>-(D42-1)*E42</f>
+      <c r="H42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <f>B42*H41+C42*H42+D42*H43</f>
+        <v>0.55321999999999993</v>
+      </c>
+      <c r="L42">
+        <f>J42/J41</f>
+        <v>1.0557633587786257</v>
+      </c>
+      <c r="O42">
+        <f>L42+L46</f>
+        <v>2.0807383467357905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>-(D43-1)*G43*1/F43</f>
         <v>-9.9350000000000049E-2</v>
       </c>
-      <c r="C42">
-        <f>-(D42-1)*(1-E42)</f>
+      <c r="C43">
+        <f>-(D43-1)*(1-G43)*1/F43</f>
         <v>-9.9350000000000049E-2</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>1.1987000000000001</v>
       </c>
-      <c r="E42">
+      <c r="E43">
+        <f>SUM(B43:D43)</f>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>0.5</v>
       </c>
-      <c r="F42">
-        <v>96</v>
-      </c>
-      <c r="H42">
-        <f>B42*F40+C42*F41+D42*F42</f>
-        <v>86.462400000000002</v>
-      </c>
-      <c r="M42">
-        <f>J45+J49</f>
-        <v>2.0677771191553154</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
-        <f t="shared" ref="B44:D46" si="2">B40</f>
+      <c r="H43">
+        <v>0.1</v>
+      </c>
+      <c r="J43">
+        <f>B43*H41+C43*H42+D43*H43</f>
+        <v>2.0519999999999969E-2</v>
+      </c>
+      <c r="O43">
+        <f>L46+L50</f>
+        <v>2.0550131558960958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
+        <f t="shared" ref="B45:D47" si="2">B41</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C45" s="4">
         <f t="shared" si="2"/>
         <v>-6.0000000000000053E-2</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D45" s="4">
         <f t="shared" si="2"/>
         <v>-6.0000000000000053E-2</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f>B44*F44+C44*F45+D44*F46</f>
-        <v>-6.0000000000000053E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="H45">
+        <v>0.1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45">
+        <f>B45*H45+C45*H46+D45*H47</f>
+        <v>5.1999999999999963E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
         <f t="shared" si="2"/>
         <v>-0.13305</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C46" s="3">
         <f t="shared" si="2"/>
         <v>1.2661</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="3">
         <f t="shared" si="2"/>
         <v>-0.13305</v>
       </c>
-      <c r="F45">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="H46">
         <v>0.5</v>
       </c>
-      <c r="H45">
-        <f>B45*F44+C45*F45+D45*F46</f>
-        <v>0.56652499999999995</v>
-      </c>
-      <c r="J45">
-        <f>H45/H46</f>
-        <v>1.0306544776458815</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
+      <c r="J46">
+        <f>B46*H45+C46*H46+D46*H47</f>
+        <v>0.55322000000000005</v>
+      </c>
+      <c r="L46">
+        <f>J46/J47</f>
+        <v>1.0249749879571646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
         <f t="shared" si="2"/>
         <v>-9.9350000000000049E-2</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C47" s="3">
         <f t="shared" si="2"/>
         <v>-9.9350000000000049E-2</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D47" s="3">
         <f t="shared" si="2"/>
         <v>1.1987000000000001</v>
       </c>
-      <c r="F46">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="H47">
         <v>0.5</v>
       </c>
-      <c r="H46">
-        <f>B46*F44+C46*F45+D46*F46</f>
-        <v>0.54967500000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="2">
-        <f t="shared" ref="B48:D50" si="3">B40</f>
+      <c r="J47">
+        <f>B47*H45+C47*H46+D47*H47</f>
+        <v>0.53974</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <f t="shared" ref="B49:D51" si="3">B41</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C49" s="4">
         <f t="shared" si="3"/>
         <v>-6.0000000000000053E-2</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <f t="shared" si="3"/>
         <v>-6.0000000000000053E-2</v>
       </c>
-      <c r="F48">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="H49">
         <v>0.5</v>
       </c>
-      <c r="H48">
-        <f>B48*F48+C48*F49+D48*F50</f>
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="4">
+      <c r="I49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49">
+        <f>B49*H49+C49*H50+D49*H51</f>
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
         <f t="shared" si="3"/>
         <v>-0.13305</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C50" s="4">
         <f t="shared" si="3"/>
         <v>1.2661</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D50" s="4">
         <f t="shared" si="3"/>
         <v>-0.13305</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f>B49*F48+C49*F49+D49*F50</f>
-        <v>-0.13305</v>
-      </c>
-      <c r="J49">
-        <f>H50/H48</f>
-        <v>1.0371226415094339</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="3">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="H50">
+        <v>0.1</v>
+      </c>
+      <c r="J50">
+        <f>B50*H49+C50*H50+D50*H51</f>
+        <v>-6.4400000000000013E-3</v>
+      </c>
+      <c r="L50">
+        <f>J51/J49</f>
+        <v>1.0300381679389312</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
         <f t="shared" si="3"/>
         <v>-9.9350000000000049E-2</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C51" s="4">
         <f t="shared" si="3"/>
         <v>-9.9350000000000049E-2</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D51" s="3">
         <f t="shared" si="3"/>
         <v>1.1987000000000001</v>
       </c>
-      <c r="F50">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="H51">
         <v>0.5</v>
       </c>
-      <c r="H50">
-        <f>B50*F48+C50*F49+D50*F50</f>
-        <v>0.54967500000000002</v>
+      <c r="J51">
+        <f>B51*H49+C51*H50+D51*H51</f>
+        <v>0.53974</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1621,13 +2842,1686 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>192</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>183</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>192</v>
+      </c>
+      <c r="B3">
+        <v>192</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>171</v>
+      </c>
+      <c r="E3">
+        <v>163</v>
+      </c>
+      <c r="F3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>192</v>
+      </c>
+      <c r="C4">
+        <v>96</v>
+      </c>
+      <c r="D4">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>169</v>
+      </c>
+      <c r="F4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>192</v>
+      </c>
+      <c r="C5">
+        <v>192</v>
+      </c>
+      <c r="D5">
+        <v>79</v>
+      </c>
+      <c r="E5">
+        <v>153</v>
+      </c>
+      <c r="F5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>128</v>
+      </c>
+      <c r="C6">
+        <v>192</v>
+      </c>
+      <c r="D6">
+        <v>111</v>
+      </c>
+      <c r="E6">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>192</v>
+      </c>
+      <c r="B7">
+        <v>128</v>
+      </c>
+      <c r="C7">
+        <v>192</v>
+      </c>
+      <c r="D7">
+        <v>192</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>255</v>
+      </c>
+      <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>245</v>
+      </c>
+      <c r="F8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>192</v>
+      </c>
+      <c r="B9">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>96</v>
+      </c>
+      <c r="D9">
+        <v>184</v>
+      </c>
+      <c r="E9">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>192</v>
+      </c>
+      <c r="C10">
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <v>172</v>
+      </c>
+      <c r="E10">
+        <v>164</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>192</v>
+      </c>
+      <c r="C11">
+        <v>128</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <v>164</v>
+      </c>
+      <c r="F11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>192</v>
+      </c>
+      <c r="C12">
+        <v>192</v>
+      </c>
+      <c r="D12">
+        <v>107</v>
+      </c>
+      <c r="E12">
+        <v>153</v>
+      </c>
+      <c r="F12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>128</v>
+      </c>
+      <c r="B13">
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <v>192</v>
+      </c>
+      <c r="D13">
+        <v>111</v>
+      </c>
+      <c r="E13">
+        <v>66</v>
+      </c>
+      <c r="F13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>192</v>
+      </c>
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>192</v>
+      </c>
+      <c r="D14">
+        <v>192</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>255</v>
+      </c>
+      <c r="B15">
+        <v>255</v>
+      </c>
+      <c r="C15">
+        <v>255</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>245</v>
+      </c>
+      <c r="F15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>96</v>
+      </c>
+      <c r="D18">
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <v>57</v>
+      </c>
+      <c r="F18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>128</v>
+      </c>
+      <c r="B19">
+        <v>128</v>
+      </c>
+      <c r="C19">
+        <v>128</v>
+      </c>
+      <c r="D19">
+        <v>103</v>
+      </c>
+      <c r="E19">
+        <v>82</v>
+      </c>
+      <c r="F19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>160</v>
+      </c>
+      <c r="B20">
+        <v>160</v>
+      </c>
+      <c r="C20">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <v>139</v>
+      </c>
+      <c r="E20">
+        <v>112</v>
+      </c>
+      <c r="F20">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>192</v>
+      </c>
+      <c r="B21">
+        <v>192</v>
+      </c>
+      <c r="C21">
+        <v>192</v>
+      </c>
+      <c r="D21">
+        <v>187</v>
+      </c>
+      <c r="E21">
+        <v>147</v>
+      </c>
+      <c r="F21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>224</v>
+      </c>
+      <c r="B22">
+        <v>224</v>
+      </c>
+      <c r="C22">
+        <v>224</v>
+      </c>
+      <c r="D22">
+        <v>236</v>
+      </c>
+      <c r="E22">
+        <v>196</v>
+      </c>
+      <c r="F22">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>255</v>
+      </c>
+      <c r="B23">
+        <v>255</v>
+      </c>
+      <c r="C23">
+        <v>255</v>
+      </c>
+      <c r="D23">
+        <v>255</v>
+      </c>
+      <c r="E23">
+        <v>245</v>
+      </c>
+      <c r="F23">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>128</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>97</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>192</v>
+      </c>
+      <c r="B25">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>182</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>255</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>255</v>
+      </c>
+      <c r="B27">
+        <v>128</v>
+      </c>
+      <c r="C27">
+        <v>128</v>
+      </c>
+      <c r="D27">
+        <v>255</v>
+      </c>
+      <c r="E27">
+        <v>71</v>
+      </c>
+      <c r="F27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>128</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>192</v>
+      </c>
+      <c r="C29">
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>172</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>255</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>254</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>128</v>
+      </c>
+      <c r="B31">
+        <v>255</v>
+      </c>
+      <c r="C31">
+        <v>128</v>
+      </c>
+      <c r="D31">
+        <v>84</v>
+      </c>
+      <c r="E31">
+        <v>254</v>
+      </c>
+      <c r="F31">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>128</v>
+      </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>192</v>
+      </c>
+      <c r="D33">
+        <v>61</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>255</v>
+      </c>
+      <c r="D34">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>128</v>
+      </c>
+      <c r="B35">
+        <v>128</v>
+      </c>
+      <c r="C35">
+        <v>255</v>
+      </c>
+      <c r="D35">
+        <v>128</v>
+      </c>
+      <c r="E35">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>128</v>
+      </c>
+      <c r="B36">
+        <v>128</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>93</v>
+      </c>
+      <c r="E36">
+        <v>90</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>192</v>
+      </c>
+      <c r="B37">
+        <v>192</v>
+      </c>
+      <c r="C37">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <v>171</v>
+      </c>
+      <c r="E37">
+        <v>167</v>
+      </c>
+      <c r="F37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>255</v>
+      </c>
+      <c r="B38">
+        <v>255</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38">
+        <v>254</v>
+      </c>
+      <c r="F38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>255</v>
+      </c>
+      <c r="B39">
+        <v>255</v>
+      </c>
+      <c r="C39">
+        <v>128</v>
+      </c>
+      <c r="D39">
+        <v>255</v>
+      </c>
+      <c r="E39">
+        <v>254</v>
+      </c>
+      <c r="F39">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>128</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>128</v>
+      </c>
+      <c r="D40">
+        <v>103</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>192</v>
+      </c>
+      <c r="B41">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>192</v>
+      </c>
+      <c r="D41">
+        <v>199</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>255</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>255</v>
+      </c>
+      <c r="D42">
+        <v>255</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>255</v>
+      </c>
+      <c r="B43">
+        <v>128</v>
+      </c>
+      <c r="C43">
+        <v>255</v>
+      </c>
+      <c r="D43">
+        <v>255</v>
+      </c>
+      <c r="E43">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>128</v>
+      </c>
+      <c r="C44">
+        <v>128</v>
+      </c>
+      <c r="D44">
+        <v>23</v>
+      </c>
+      <c r="E44">
+        <v>84</v>
+      </c>
+      <c r="F44">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>192</v>
+      </c>
+      <c r="C45">
+        <v>192</v>
+      </c>
+      <c r="D45">
+        <v>58</v>
+      </c>
+      <c r="E45">
+        <v>154</v>
+      </c>
+      <c r="F45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>255</v>
+      </c>
+      <c r="C46">
+        <v>255</v>
+      </c>
+      <c r="D46">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>254</v>
+      </c>
+      <c r="F46">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>128</v>
+      </c>
+      <c r="B47">
+        <v>255</v>
+      </c>
+      <c r="C47">
+        <v>255</v>
+      </c>
+      <c r="D47">
+        <v>115</v>
+      </c>
+      <c r="E47">
+        <v>251</v>
+      </c>
+      <c r="F47">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.489962238132922</v>
+      </c>
+      <c r="C2">
+        <v>0.32955219088775101</v>
+      </c>
+      <c r="E2">
+        <v>0.39818992022232902</v>
+      </c>
+      <c r="F2">
+        <v>0.33996535620051499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.39490590631718903</v>
+      </c>
+      <c r="C3">
+        <v>0.46488317526909601</v>
+      </c>
+      <c r="E3">
+        <v>0.36479509033424201</v>
+      </c>
+      <c r="F3">
+        <v>0.43461386182654199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.30535846355872298</v>
+      </c>
+      <c r="C4">
+        <v>0.48590917049118998</v>
+      </c>
+      <c r="E4">
+        <v>0.29635649091439098</v>
+      </c>
+      <c r="F4">
+        <v>0.42164845450300997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.24806092476619501</v>
+      </c>
+      <c r="C5">
+        <v>0.32883020189616402</v>
+      </c>
+      <c r="E5">
+        <v>0.24522614632467099</v>
+      </c>
+      <c r="F5">
+        <v>0.31825654907181899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.253601823684248</v>
+      </c>
+      <c r="C6">
+        <v>0.231276536232737</v>
+      </c>
+      <c r="E6">
+        <v>0.25291270000694999</v>
+      </c>
+      <c r="F6">
+        <v>0.271588748345655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.316562190958525</v>
+      </c>
+      <c r="C7">
+        <v>0.24736270308953001</v>
+      </c>
+      <c r="E7">
+        <v>0.28586463352985297</v>
+      </c>
+      <c r="F7">
+        <v>0.28080365657974699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.31272687102656399</v>
+      </c>
+      <c r="C8">
+        <v>0.32902320664128398</v>
+      </c>
+      <c r="E8">
+        <v>0.30177198476262102</v>
+      </c>
+      <c r="F8">
+        <v>0.33316148890609498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.45229042297616001</v>
+      </c>
+      <c r="C9">
+        <v>0.32943975397925401</v>
+      </c>
+      <c r="E9">
+        <v>0.36763830138426401</v>
+      </c>
+      <c r="F9">
+        <v>0.33485712964674103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.38514049028841102</v>
+      </c>
+      <c r="C10">
+        <v>0.44873880084786699</v>
+      </c>
+      <c r="E10">
+        <v>0.35031299649916597</v>
+      </c>
+      <c r="F10">
+        <v>0.412789909102522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.30812970021484998</v>
+      </c>
+      <c r="C11">
+        <v>0.42690481497064697</v>
+      </c>
+      <c r="E11">
+        <v>0.294582707605266</v>
+      </c>
+      <c r="F11">
+        <v>0.37653270157677299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.26588414585694797</v>
+      </c>
+      <c r="C12">
+        <v>0.32888339784306903</v>
+      </c>
+      <c r="E12">
+        <v>0.26177556206040198</v>
+      </c>
+      <c r="F12">
+        <v>0.32009617541048202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.253601823684248</v>
+      </c>
+      <c r="C13">
+        <v>0.231276536232737</v>
+      </c>
+      <c r="E13">
+        <v>0.25291270000694999</v>
+      </c>
+      <c r="F13">
+        <v>0.271588748345655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.316562190958525</v>
+      </c>
+      <c r="C14">
+        <v>0.24736270308953001</v>
+      </c>
+      <c r="E14">
+        <v>0.28586463352985297</v>
+      </c>
+      <c r="F14">
+        <v>0.28080365657974699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.31272687102656399</v>
+      </c>
+      <c r="C15">
+        <v>0.32902320664128398</v>
+      </c>
+      <c r="E15">
+        <v>0.30177198476262102</v>
+      </c>
+      <c r="F15">
+        <v>0.33316148890609498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.31272687102656399</v>
+      </c>
+      <c r="C16">
+        <v>0.32902320664128398</v>
+      </c>
+      <c r="E16">
+        <v>0.272618227373219</v>
+      </c>
+      <c r="F16">
+        <v>0.30438805462720198</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.31272687102656399</v>
+      </c>
+      <c r="C17">
+        <v>0.32902320664128398</v>
+      </c>
+      <c r="E17">
+        <v>0.29103761180774601</v>
+      </c>
+      <c r="F17">
+        <v>0.32824554985260201</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.31272687102656399</v>
+      </c>
+      <c r="C18">
+        <v>0.32902320664128398</v>
+      </c>
+      <c r="E18">
+        <v>0.28913540520516601</v>
+      </c>
+      <c r="F18">
+        <v>0.32416608004668102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.31272687102656399</v>
+      </c>
+      <c r="C19">
+        <v>0.32902320664128398</v>
+      </c>
+      <c r="E19">
+        <v>0.29033272889065997</v>
+      </c>
+      <c r="F19">
+        <v>0.32478144467118703</v>
+      </c>
+      <c r="H19">
+        <v>0.926441215365436</v>
+      </c>
+      <c r="I19">
+        <v>-6.8702508862064901E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.100046218860756</v>
+      </c>
+      <c r="L19">
+        <v>0.8</v>
+      </c>
+      <c r="M19">
+        <f>H19*L19+I19*L20+J19*L21</f>
+        <v>0.68619096520269696</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.31272687102656399</v>
+      </c>
+      <c r="C20">
+        <v>0.32902320664128398</v>
+      </c>
+      <c r="E20">
+        <v>0.29087165921751001</v>
+      </c>
+      <c r="F20">
+        <v>0.32495775917472203</v>
+      </c>
+      <c r="H20">
+        <v>-8.4469174419850704E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.01178505793042</v>
+      </c>
+      <c r="J20">
+        <v>-0.128930110929562</v>
+      </c>
+      <c r="L20">
+        <v>0.8</v>
+      </c>
+      <c r="M20">
+        <f>H20*L19+I20*L20+J20*L21</f>
+        <v>0.74185270680845539</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.31272687102656399</v>
+      </c>
+      <c r="C21">
+        <v>0.32902320664128398</v>
+      </c>
+      <c r="E21">
+        <v>0.289552051894443</v>
+      </c>
+      <c r="F21">
+        <v>0.32428477677495199</v>
+      </c>
+      <c r="H21">
+        <v>-1.59383927306503E-2</v>
+      </c>
+      <c r="I21">
+        <v>-2.7664916233993499E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.88600157346283204</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>H21*L19+I21*L20+J21*L21</f>
+        <v>-3.4882647171715041E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.31272687102656399</v>
+      </c>
+      <c r="C22">
+        <v>0.32902320664128398</v>
+      </c>
+      <c r="E22">
+        <v>0.29569532810619797</v>
+      </c>
+      <c r="F22">
+        <v>0.32222186089383398</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.31272687102656399</v>
+      </c>
+      <c r="C23">
+        <v>0.32902320664128398</v>
+      </c>
+      <c r="E23">
+        <v>0.30177198476262102</v>
+      </c>
+      <c r="F23">
+        <v>0.33316148890609498</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.64</v>
+      </c>
+      <c r="C24">
+        <v>0.33</v>
+      </c>
+      <c r="E24">
+        <v>0.59353050501511195</v>
+      </c>
+      <c r="F24">
+        <v>0.35463103136776802</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.52973412012665899</v>
+      </c>
+      <c r="C25">
+        <v>0.32967089574542502</v>
+      </c>
+      <c r="E25">
+        <v>0.43736951082146203</v>
+      </c>
+      <c r="F25">
+        <v>0.34552864256316101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.64</v>
+      </c>
+      <c r="C26">
+        <v>0.33</v>
+      </c>
+      <c r="E26">
+        <v>0.61869219824794297</v>
+      </c>
+      <c r="F26">
+        <v>0.35995574610127201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.45512866013241898</v>
+      </c>
+      <c r="C27">
+        <v>0.32944822510309302</v>
+      </c>
+      <c r="E27">
+        <v>0.37695630357542398</v>
+      </c>
+      <c r="F27">
+        <v>0.33446372440305999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.3</v>
+      </c>
+      <c r="C28">
+        <v>0.6</v>
+      </c>
+      <c r="E28">
+        <v>0.29708590941350699</v>
+      </c>
+      <c r="F28">
+        <v>0.57774396610707701</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.30274296180159499</v>
+      </c>
+      <c r="C29">
+        <v>0.54159766436302403</v>
+      </c>
+      <c r="E29">
+        <v>0.30027440208516099</v>
+      </c>
+      <c r="F29">
+        <v>0.48640157747048302</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.3</v>
+      </c>
+      <c r="C30">
+        <v>0.6</v>
+      </c>
+      <c r="E30">
+        <v>0.315509804936359</v>
+      </c>
+      <c r="F30">
+        <v>0.59867486925159397</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.30524905518640799</v>
+      </c>
+      <c r="C31">
+        <v>0.48823866136405297</v>
+      </c>
+      <c r="E31">
+        <v>0.30315028718478298</v>
+      </c>
+      <c r="F31">
+        <v>0.41999418773288399</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.15</v>
+      </c>
+      <c r="C32">
+        <v>0.06</v>
+      </c>
+      <c r="E32">
+        <v>0.145159764996625</v>
+      </c>
+      <c r="F32">
+        <v>0.103263823364343</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.18481976382825099</v>
+      </c>
+      <c r="C33">
+        <v>0.11756470618819399</v>
+      </c>
+      <c r="E33">
+        <v>0.19182234533550499</v>
+      </c>
+      <c r="F33">
+        <v>0.1808277915315</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.15</v>
+      </c>
+      <c r="C34">
+        <v>0.06</v>
+      </c>
+      <c r="E34">
+        <v>0.14171093893908601</v>
+      </c>
+      <c r="F34">
+        <v>0.122364789051175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.216753054871996</v>
+      </c>
+      <c r="C35">
+        <v>0.17035743980989199</v>
+      </c>
+      <c r="E35">
+        <v>0.22808826412806801</v>
+      </c>
+      <c r="F35">
+        <v>0.24631191476238601</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.41932034968236997</v>
+      </c>
+      <c r="C36">
+        <v>0.50524560466399904</v>
+      </c>
+      <c r="E36">
+        <v>0.40639530686528602</v>
+      </c>
+      <c r="F36">
+        <v>0.50221459331628104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.40318904397815603</v>
+      </c>
+      <c r="C37">
+        <v>0.478577018458896</v>
+      </c>
+      <c r="E37">
+        <v>0.37923630017911902</v>
+      </c>
+      <c r="F37">
+        <v>0.45647565290064002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.41932034968236997</v>
+      </c>
+      <c r="C38">
+        <v>0.50524560466399904</v>
+      </c>
+      <c r="E38">
+        <v>0.43446595696896101</v>
+      </c>
+      <c r="F38">
+        <v>0.50804213440812596</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.38595647776084202</v>
+      </c>
+      <c r="C39">
+        <v>0.45008780710004698</v>
+      </c>
+      <c r="E39">
+        <v>0.36418178053144701</v>
+      </c>
+      <c r="F39">
+        <v>0.40951610614301498</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.32093818028481003</v>
+      </c>
+      <c r="C40">
+        <v>0.154190425871222</v>
+      </c>
+      <c r="E40">
+        <v>0.28581521331440901</v>
+      </c>
+      <c r="F40">
+        <v>0.179964155761838</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.31970180575468699</v>
+      </c>
+      <c r="C41">
+        <v>0.18051494859671299</v>
+      </c>
+      <c r="E41">
+        <v>0.28302641811909701</v>
+      </c>
+      <c r="F41">
+        <v>0.22076081711965101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.32093818028481003</v>
+      </c>
+      <c r="C42">
+        <v>0.154190425871222</v>
+      </c>
+      <c r="E42">
+        <v>0.294446244825739</v>
+      </c>
+      <c r="F42">
+        <v>0.197716477314438</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.31837856060966702</v>
+      </c>
+      <c r="C43">
+        <v>0.20868909489524501</v>
+      </c>
+      <c r="E43">
+        <v>0.29515662677319199</v>
+      </c>
+      <c r="F43">
+        <v>0.26562448870837801</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.224655651532784</v>
+      </c>
+      <c r="C44">
+        <v>0.32876034551802202</v>
+      </c>
+      <c r="E44">
+        <v>0.21275832301224601</v>
+      </c>
+      <c r="F44">
+        <v>0.31661161661114501</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.235249750774984</v>
+      </c>
+      <c r="C45">
+        <v>0.32879196511909897</v>
+      </c>
+      <c r="E45">
+        <v>0.229417616848339</v>
+      </c>
+      <c r="F45">
+        <v>0.31648558606211202</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.224655651532784</v>
+      </c>
+      <c r="C46">
+        <v>0.32876034551802202</v>
+      </c>
+      <c r="E46">
+        <v>0.21557152522114501</v>
+      </c>
+      <c r="F46">
+        <v>0.325612841949798</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.247458168354106</v>
+      </c>
+      <c r="C47">
+        <v>0.32882840288363202</v>
+      </c>
+      <c r="E47">
+        <v>0.250705632553618</v>
+      </c>
+      <c r="F47">
+        <v>0.32854516082717999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>